--- a/dados_unificado.xlsx
+++ b/dados_unificado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abca2ddceffe804d/Desktop/DIAGNÓSTO PROCESSOS 360/Apresentação/painel-gut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD87B834-8636-488F-8698-70D02F871885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{FD87B834-8636-488F-8698-70D02F871885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658C886A-B804-4C5E-B49A-4F55AB91E8C5}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Radar" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Impostos</t>
   </si>
   <si>
-    <t>Contábil</t>
-  </si>
-  <si>
     <t>Escrituração</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Erros recorrentes</t>
   </si>
   <si>
-    <t>Baixa comunicação</t>
-  </si>
-  <si>
     <t>Ação</t>
   </si>
   <si>
@@ -109,27 +103,18 @@
     <t>15 dias</t>
   </si>
   <si>
-    <t>João</t>
-  </si>
-  <si>
     <t>Criar checklist</t>
   </si>
   <si>
     <t>30 dias</t>
   </si>
   <si>
-    <t>Maria</t>
-  </si>
-  <si>
     <t>Treinar equipe</t>
   </si>
   <si>
     <t>60 dias</t>
   </si>
   <si>
-    <t>Ana</t>
-  </si>
-  <si>
     <t>Implementar sistema</t>
   </si>
   <si>
@@ -140,6 +125,21 @@
   </si>
   <si>
     <t>Pontuação</t>
+  </si>
+  <si>
+    <t>legalização</t>
+  </si>
+  <si>
+    <t>contábil</t>
+  </si>
+  <si>
+    <t>gabrielk</t>
+  </si>
+  <si>
+    <t>gabriel vilela</t>
+  </si>
+  <si>
+    <t>gabrielll</t>
   </si>
 </sst>
 </file>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,40 +534,40 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>7.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3">
-        <v>8.1999999999999993</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4">
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
         <v>10</v>
-      </c>
-      <c r="C5">
-        <v>9.1</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +580,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,24 +594,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -620,34 +620,34 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <f>B2*C2*D2</f>
-        <v>60</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E5" si="0">B3*C3*D3</f>
-        <v>40</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -656,29 +656,29 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,57 +703,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/dados_unificado.xlsx
+++ b/dados_unificado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abca2ddceffe804d/Desktop/DIAGNÓSTO PROCESSOS 360/Apresentação/painel-gut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{FD87B834-8636-488F-8698-70D02F871885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658C886A-B804-4C5E-B49A-4F55AB91E8C5}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{FD87B834-8636-488F-8698-70D02F871885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42B9224E-8BA6-4F5A-AC13-10C0B53D7D44}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="3030" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Radar" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>Carlos</t>
   </si>
   <si>
-    <t>Pontuação</t>
-  </si>
-  <si>
     <t>legalização</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>gabrielll</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -195,10 +195,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -215,6 +218,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,7 +546,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -579,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,20 +613,20 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>20</v>
       </c>
       <c r="E2">
@@ -631,13 +638,13 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>30</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3">
@@ -649,13 +656,13 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>20</v>
       </c>
       <c r="E4">
@@ -665,15 +672,15 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
       <c r="E5">
@@ -690,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -720,7 +727,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,7 +738,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -742,7 +749,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/dados_unificado.xlsx
+++ b/dados_unificado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abca2ddceffe804d/Desktop/DIAGNÓSTO PROCESSOS 360/Apresentação/painel-gut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{FD87B834-8636-488F-8698-70D02F871885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42B9224E-8BA6-4F5A-AC13-10C0B53D7D44}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{FD87B834-8636-488F-8698-70D02F871885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE241E60-161F-438E-8C65-B5212C8C53FC}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="3030" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="3390" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Radar" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Departamento</t>
   </si>
@@ -79,15 +79,6 @@
     <t>Tendência</t>
   </si>
   <si>
-    <t>Atraso nas entregas</t>
-  </si>
-  <si>
-    <t>Falta de padronização</t>
-  </si>
-  <si>
-    <t>Erros recorrentes</t>
-  </si>
-  <si>
     <t>Ação</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>legalização</t>
   </si>
   <si>
-    <t>contábil</t>
-  </si>
-  <si>
     <t>gabrielk</t>
   </si>
   <si>
@@ -140,6 +128,24 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>Falta de atualização no sistema</t>
+  </si>
+  <si>
+    <t>Falta de respeito</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>Departamento financeiro sem estar estruturado</t>
+  </si>
+  <si>
+    <t>diretoria</t>
+  </si>
+  <si>
+    <t>situação de daily</t>
   </si>
 </sst>
 </file>
@@ -509,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +552,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -575,6 +581,17 @@
       </c>
       <c r="C5">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -586,13 +603,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
@@ -613,12 +630,12 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -636,7 +653,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2">
         <v>4</v>
@@ -645,37 +662,37 @@
         <v>30</v>
       </c>
       <c r="D3" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E5" si="0">B3*C3*D3</f>
-        <v>240</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
         <v>20</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -685,7 +702,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -710,57 +727,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/dados_unificado.xlsx
+++ b/dados_unificado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abca2ddceffe804d/Desktop/DIAGNÓSTO PROCESSOS 360/Apresentação/painel-gut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{FD87B834-8636-488F-8698-70D02F871885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE241E60-161F-438E-8C65-B5212C8C53FC}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{FD87B834-8636-488F-8698-70D02F871885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAA33908-DFB8-47BF-B563-A4BB42DD8DEE}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="3390" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27705" yWindow="2565" windowWidth="28800" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Radar" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Departamento</t>
   </si>
@@ -46,27 +46,12 @@
     <t>Avaliação</t>
   </si>
   <si>
-    <t>Fiscal</t>
-  </si>
-  <si>
     <t>Impostos</t>
   </si>
   <si>
-    <t>Escrituração</t>
-  </si>
-  <si>
     <t>Pessoal</t>
   </si>
   <si>
-    <t>Folha</t>
-  </si>
-  <si>
-    <t>Financeiro</t>
-  </si>
-  <si>
-    <t>Cobrança</t>
-  </si>
-  <si>
     <t>Problema</t>
   </si>
   <si>
@@ -109,15 +94,6 @@
     <t>Implementar sistema</t>
   </si>
   <si>
-    <t>90 dias</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>legalização</t>
-  </si>
-  <si>
     <t>gabrielk</t>
   </si>
   <si>
@@ -142,10 +118,22 @@
     <t>Departamento financeiro sem estar estruturado</t>
   </si>
   <si>
-    <t>diretoria</t>
-  </si>
-  <si>
-    <t>situação de daily</t>
+    <t>pessoal</t>
+  </si>
+  <si>
+    <t>folha de pagamento</t>
+  </si>
+  <si>
+    <t>foolha de adiantamento</t>
+  </si>
+  <si>
+    <t>folha de pro labore</t>
+  </si>
+  <si>
+    <t>recibo</t>
+  </si>
+  <si>
+    <t>vilela</t>
   </si>
 </sst>
 </file>
@@ -517,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -541,32 +529,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -574,24 +562,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +592,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,81 +606,81 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <f>B2*C2*D2</f>
-        <v>400</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E5" si="0">B3*C3*D3</f>
-        <v>3600</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
         <v>20</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -702,7 +690,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -714,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,57 +715,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
